--- a/regions/4/ckhovrebis done/kharjebi.xlsx
+++ b/regions/4/ckhovrebis done/kharjebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -333,22 +333,20 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -363,26 +361,26 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -398,18 +396,6 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -422,18 +408,18 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -744,2382 +730,2687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5">
         <v>2011</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>2012</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>2013</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>2014</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>2015</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>2016</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>2017</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>2018</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>2019</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>2020</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="M2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>50.782676115115997</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>53.590130725096756</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>66.048890524054642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>64.606417350217313</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>67.574315806942465</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>67.909431821273813</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>71.39745020899332</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>73.589038982282943</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="16">
         <v>79.667698120830622</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="16">
         <v>70.127125400540905</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="16">
         <v>77.337950690395019</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="M3" s="20">
+        <v>100.26482229934375</v>
+      </c>
+      <c r="N3" s="20">
+        <v>123.93527974552532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>44.833478045994369</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>48.869148463471078</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>61.218965363541145</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>59.057883264916853</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>61.909167429639503</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>62.51927668494568</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>64.89609319595391</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>67.480843533417058</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>74.650136123658555</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="17">
         <v>64.32427681017603</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="17">
         <v>70.519164358051981</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="M4" s="21">
+        <v>93.804055637440797</v>
+      </c>
+      <c r="N4" s="21">
+        <v>114.44791720551478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>18.172948215229166</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>18.536782586802268</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>20.818507861594032</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>20.290699086839307</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>20.596916426946091</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>20.891259853623438</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>22.329046889295714</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>24.909340987269758</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <v>26.964097460842726</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <v>27.109678813348296</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="18">
         <v>30.809302076072928</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="M5" s="22">
+        <v>36.952324044870274</v>
+      </c>
+      <c r="N5" s="22">
+        <v>40.144734194800996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1.238732676386781</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>1.3279907551290882</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>2.9795830632637186</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>2.882435178831813</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>3.3904189963457374</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>2.9353543356576446</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>3.7289561326993312</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>3.6274547022292363</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <v>3.3245361377538041</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="18">
         <v>2.2071511569226585</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="18">
         <v>2.4579830596453345</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="M6" s="22">
+        <v>4.2895426253704985</v>
+      </c>
+      <c r="N6" s="22">
+        <v>5.9455457170842498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>1.1961008296791196</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>2.6993385343298932</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>2.9228158744680717</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>3.1787003383134627</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>2.6574417410335136</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>2.890019984497783</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>2.3274385533922692</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>2.3080907526611165</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>2.1437897550455962</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <v>1.7257407862885117</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="18">
         <v>1.9135424655087998</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="M7" s="22">
+        <v>3.3625287838461864</v>
+      </c>
+      <c r="N7" s="22">
+        <v>4.4824460378552731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>7.5181108209704224</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>4.61041346481269</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>6.8551814935456239</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>5.8058035313493495</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>6.436304987831277</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>8.8890711478666162</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>7.9807026394533791</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <v>8.3974476940006255</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <v>9.0183106964899693</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="18">
         <v>7.1423361163152048</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="18">
         <v>8.7221884631805437</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="M8" s="22">
+        <v>10.904892190021259</v>
+      </c>
+      <c r="N8" s="22">
+        <v>16.143445278161462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
+      <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>6.0645229827943394</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>6.988468159100611</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>7.8844139579270296</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>7.5296467044408741</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>8.9480704201018924</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>10.557224055928117</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>9.1636265070270593</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>9.3589507851349207</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <v>10.070310487683065</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <v>8.8730669212535851</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="18">
         <v>8.9601763050700907</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="M9" s="22">
+        <v>12.344891463439943</v>
+      </c>
+      <c r="N9" s="22">
+        <v>13.998822644036697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
+      <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>3.3961989784512752</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>4.2339363090671416</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>7.3276685031093125</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>6.2759409824027736</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>6.8591496568909136</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>5.0023413660457816</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <v>6.6195026919353479</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <v>6.9884018972299158</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <v>10.215641748582847</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="18">
         <v>6.5531755019933611</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="18">
         <v>7.7125484195599556</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="M10" s="22">
+        <v>9.7531621590176041</v>
+      </c>
+      <c r="N10" s="22">
+        <v>13.65626519152138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
+      <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>1.9564459951851301</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>2.7587532836362079</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>2.7825123445363205</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>2.3274986905311761</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>2.311620579946549</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>2.2573654214677723</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <v>2.3063591695798236</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>2.9052442207870484</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <v>2.8718456650505071</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="18">
         <v>1.6841784891942344</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="18">
         <v>2.1034724118436179</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="M11" s="22">
+        <v>3.2426758786010734</v>
+      </c>
+      <c r="N11" s="22">
+        <v>4.8826800709889717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
+      <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>5.2904175472981461</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>7.7134653705931786</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>9.6482822650969542</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>10.767158752208069</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>10.709244620543529</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <v>9.0966405198585427</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <v>10.440460612571027</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <v>8.9859124941044399</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <v>10.041604172210018</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="18">
         <v>9.0289490248601876</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="18">
         <v>7.8399511571707308</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="M12" s="22">
+        <v>12.954038492273956</v>
+      </c>
+      <c r="N12" s="22">
+        <v>15.193978071065764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>5.9491980691216169</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>4.7209822616256618</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>4.8299251605135387</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>5.5485340853004121</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>5.6651483773030469</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <v>5.3901551363280609</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="7">
         <v>6.5013570130393603</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>6.1081954488658585</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="17">
         <v>5.0175619971720948</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="17">
         <v>5.8028485903648725</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="17">
         <v>6.8187863323430209</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="M13" s="21">
+        <v>6.4607666619029533</v>
+      </c>
+      <c r="N13" s="21">
+        <v>9.4873625400105244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>6.7904617190559851</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>10.36586649942968</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>16.658563033790376</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>26.085675589546227</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>19.057806033320247</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <v>27.038858860352892</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>26.48711025940834</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>25.104971018620805</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
         <v>26.533651200752267</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="17">
         <v>19.506374979960125</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="17">
         <v>24.446919914021812</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="M14" s="21">
+        <v>31.321922627141319</v>
+      </c>
+      <c r="N14" s="21">
+        <v>40.567275984044393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
+      <c r="A15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>0.50131430208650929</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>0.47877496954063348</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>0.62031398413160432</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>0.66622876522991414</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>0.71162937839581142</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>0.83034457099645198</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
         <v>0.98670584298578923</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="8">
         <v>0.99452865487670927</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="18">
         <v>0.94907665767415372</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="18">
         <v>0.94976792792256681</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="18">
         <v>1.0064333727404275</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="M15" s="22">
+        <v>1.508218394515991</v>
+      </c>
+      <c r="N15" s="22">
+        <v>1.9151354547475181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
+      <c r="A16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>0.67256870916828304</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>1.1250127648005694</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>2.2586364939035453</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>5.5336015998379731</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>3.2814690687986685</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <v>3.722081995967367</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <v>2.9332091771227504</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <v>3.4939141129735316</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="18">
         <v>3.200415613361359</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="18">
         <v>1.3770142930857339</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="18">
         <v>0.98306567648569754</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="M16" s="22">
+        <v>2.3485292572123213</v>
+      </c>
+      <c r="N16" s="22">
+        <v>3.2517483010889685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>4.1182287939975488</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>7.9417410246801401</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>8.858466672758416</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>15.798101645261072</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <v>14.103139555966852</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <v>21.520281370872105</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <v>19.688493426804865</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <v>18.275171729354859</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="18">
         <v>18.431500969912211</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="18">
         <v>15.877917019905091</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="18">
         <v>17.886450634705866</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="M17" s="22">
+        <v>25.705891512354533</v>
+      </c>
+      <c r="N17" s="22">
+        <v>30.92545862725067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>1.498349913803636</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>0.82033774040832841</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>4.9211458829968233</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>4.0877435792172587</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>0.96156803015892678</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <v>0.9661509225169963</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="8">
         <v>2.8787018124949135</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="8">
         <v>2.3413565214157104</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="18">
         <v>3.9526579598045348</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="18">
         <v>1.3016757390467326</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="18">
         <v>4.5709702300898236</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="13" t="s">
+      <c r="M18" s="22">
+        <v>1.7592834630584719</v>
+      </c>
+      <c r="N18" s="22">
+        <v>4.4749336009572334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>51.623939765050309</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>59.235014962900749</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>77.877528397331531</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>85.143558854463052</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <v>80.966973462959814</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>89.558135545298597</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="7">
         <v>91.383203455362306</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <v>92.585814552037832</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
         <v>101.18378732441083</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <v>83.830651790136173</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="17">
         <v>94.966084272073815</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="A20" s="14" t="s">
+      <c r="M19" s="21">
+        <v>125.1259782645821</v>
+      </c>
+      <c r="N19" s="21">
+        <v>155.0151931895592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>57.573137834171987</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>63.955997224526435</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>82.707453557845014</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>90.692092939763555</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>86.632121840262727</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="9">
         <v>94.948290681626602</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <v>97.884560468401673</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="9">
         <v>98.694010000903745</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="19">
         <v>106.2013493215829</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="19">
         <v>89.633500380501047</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="19">
         <v>101.78487060441684</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="31" t="s">
+      <c r="M20" s="23">
+        <v>131.58674492648507</v>
+      </c>
+      <c r="N20" s="23">
+        <v>164.50255572956971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5">
         <v>2011</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>2012</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>2013</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>2014</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>2015</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>2016</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>2017</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <v>2018</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="6">
         <v>2019</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>2020</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="M24" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>675.96692221517378</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>684.40654010057847</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>789.72108053899353</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>773.83466441138921</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <v>827.76624886489196</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
         <v>795.85335040322923</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="7">
         <v>860.74127993149079</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <v>904.32514730954767</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="16">
         <v>982.90051062176292</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="16">
         <v>847.43288745330449</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="16">
         <v>893.07049981190153</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="13" t="s">
+      <c r="M25" s="20">
+        <v>1094.4796123344074</v>
+      </c>
+      <c r="N25" s="20">
+        <v>1312.1111309440512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="7">
         <v>596.77729661693616</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>624.11426068573667</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>731.9715303736649</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>707.37612688563991</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="7">
         <v>758.36978416459647</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="7">
         <v>732.68431910092227</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="7">
         <v>782.36332189076745</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <v>829.26240935993224</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="17">
         <v>920.99632152849949</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="17">
         <v>777.30988286271111</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="17">
         <v>814.32963761457336</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="M26" s="21">
+        <v>1023.9546043670927</v>
+      </c>
+      <c r="N26" s="21">
+        <v>1211.6677865016152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>241.89965579556448</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>236.73566500349463</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>248.91885985094507</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>243.03539745009499</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <v>252.30639844917545</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>244.83166333078029</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
         <v>269.19073920544224</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <v>306.1073193674917</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="18">
         <v>332.66964890237693</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="18">
         <v>327.59981624100936</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="18">
         <v>355.77460429594117</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="15" t="s">
+      <c r="M27" s="22">
+        <v>403.36744600952358</v>
+      </c>
+      <c r="N27" s="22">
+        <v>425.01499729491235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="A28" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>16.488739443475165</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>16.959942916836631</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>35.625724181079832</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <v>34.524871534164959</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <v>41.531673405371734</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="8">
         <v>34.400399473257757</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="8">
         <v>44.954917368515645</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="8">
         <v>44.577270654967293</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="18">
         <v>41.016476494936107</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="18">
         <v>26.671740318368204</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="18">
         <v>28.383893547870706</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="A29" s="15" t="s">
+      <c r="M28" s="22">
+        <v>46.824168656988164</v>
+      </c>
+      <c r="N28" s="22">
+        <v>62.945891847269884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="A29" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>15.921268006129051</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>34.473604035746703</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>34.946980824164065</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>38.073439302928534</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <v>32.552909419562361</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="8">
         <v>33.869111045548813</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="8">
         <v>28.058739262321978</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="8">
         <v>28.363796276869333</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="18">
         <v>26.449013773489071</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="18">
         <v>20.854262728828882</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="18">
         <v>22.096891769534334</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="A30" s="15" t="s">
+      <c r="M29" s="22">
+        <v>36.704989002223037</v>
+      </c>
+      <c r="N29" s="22">
+        <v>47.455957272233555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="A30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <v>100.07338370675706</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <v>58.88019090813436</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>81.964758127195623</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <v>69.540027315956266</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <v>78.842914984869537</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="8">
         <v>104.17399859302233</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="8">
         <v>96.212402327085627</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="8">
         <v>103.19503050895462</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="18">
         <v>111.26344048602567</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="18">
         <v>86.309690916894894</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="18">
         <v>100.72065707365155</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
-      <c r="A31" s="16" t="s">
+      <c r="M30" s="22">
+        <v>119.03658634181905</v>
+      </c>
+      <c r="N30" s="22">
+        <v>170.91173945590432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1">
+      <c r="A31" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="8">
         <v>80.724712618334038</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <v>89.250637172512185</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <v>94.270893286287745</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <v>90.187660446825987</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="8">
         <v>109.61133084037336</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="8">
         <v>123.72364059797486</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="8">
         <v>110.47329541019221</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="8">
         <v>115.01080411537373</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="18">
         <v>124.24249167399154</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="18">
         <v>107.22425421969926</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="18">
         <v>103.46885403268799</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="A32" s="15" t="s">
+      <c r="M31" s="22">
+        <v>134.75545773050771</v>
+      </c>
+      <c r="N31" s="22">
+        <v>148.20647558198905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="A32" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="8">
         <v>45.206719029340029</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <v>54.072152112475074</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>87.614102859146584</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <v>75.171180869805639</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="8">
         <v>84.022642539344488</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="8">
         <v>58.624111986474354</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="8">
         <v>79.802278693261982</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="8">
         <v>85.879468771052956</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="18">
         <v>126.03551662534709</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="18">
         <v>79.190133716783691</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="18">
         <v>89.061701407810091</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="A33" s="15" t="s">
+      <c r="M32" s="22">
+        <v>106.46442983728367</v>
+      </c>
+      <c r="N32" s="22">
+        <v>144.57979682388176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
+      <c r="A33" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>26.042203346031247</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>35.232397538458471</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>33.26942569217006</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="8">
         <v>27.878022679105921</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="8">
         <v>28.316698044387056</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="8">
         <v>26.454820568778917</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="8">
         <v>27.804613999448005</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="8">
         <v>35.702129614248619</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="18">
         <v>35.431406168204319</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="18">
         <v>20.352014030702097</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="18">
         <v>24.29013364610697</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
-      <c r="A34" s="15" t="s">
+      <c r="M33" s="22">
+        <v>35.396688062156628</v>
+      </c>
+      <c r="N33" s="22">
+        <v>51.69326186327207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
+      <c r="A34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <v>70.420614671305174</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>98.50967099807859</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>115.360785552675</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="8">
         <v>128.96552728675732</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="8">
         <v>131.18521648151253</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="8">
         <v>106.60657350508512</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="8">
         <v>125.86633562450031</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="8">
         <v>110.426590050974</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="18">
         <v>123.88832740412978</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="18">
         <v>109.10797069042488</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="18">
         <v>90.532901840970624</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="13" t="s">
+      <c r="M34" s="22">
+        <v>141.40483872659078</v>
+      </c>
+      <c r="N34" s="22">
+        <v>160.8596663621523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
+      <c r="A35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>79.189625598237498</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="7">
         <v>60.29227941484163</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="7">
         <v>57.749550165329104</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <v>66.458537525748696</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>69.396464700296534</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="7">
         <v>63.169031302306017</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="7">
         <v>78.377958040722802</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <v>75.062737949615268</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="17">
         <v>61.904189093261841</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="17">
         <v>70.123004590593297</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="17">
         <v>78.740862197328028</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
-      <c r="A36" s="13" t="s">
+      <c r="M35" s="21">
+        <v>70.525007967314664</v>
+      </c>
+      <c r="N35" s="21">
+        <v>100.44334444243582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
+      <c r="A36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="7">
         <v>90.38766484549113</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="7">
         <v>132.38383131423782</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="7">
         <v>199.180005824332</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <v>312.44574213668221</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="7">
         <v>233.4527316098326</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="7">
         <v>316.87743275081704</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="7">
         <v>319.31881488252253</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>308.51138876921738</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="17">
         <v>327.35901662834732</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="17">
         <v>235.71968162959951</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="17">
         <v>282.30413130391514</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
-      <c r="A37" s="15" t="s">
+      <c r="M36" s="21">
+        <v>341.90661239267274</v>
+      </c>
+      <c r="N36" s="21">
+        <v>429.48847559821439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
+      <c r="A37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="8">
         <v>6.6729820436343008</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <v>6.1144975008730622</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>7.4168547864320127</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>7.9798715686123813</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="8">
         <v>8.7172585338442499</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="8">
         <v>9.7310858167074361</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="8">
         <v>11.895361076921064</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="8">
         <v>12.221620023349912</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="18">
         <v>11.709236659910609</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="18">
         <v>11.477221873460032</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="18">
         <v>11.621926197900923</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
-      <c r="A38" s="15" t="s">
+      <c r="M37" s="22">
+        <v>16.463543702468499</v>
+      </c>
+      <c r="N37" s="22">
+        <v>20.275667692036198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
+      <c r="A38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="8">
         <v>8.9525451412630446</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <v>14.367684562589831</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>27.005644430328477</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <v>66.279681069214107</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="8">
         <v>40.197067619685427</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="8">
         <v>43.620324121725268</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="8">
         <v>35.361686083089452</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="8">
         <v>42.936209503461519</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="18">
         <v>39.485139081133312</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="18">
         <v>16.64016871915177</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L38" s="18">
         <v>11.352084548524811</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
-      <c r="A39" s="15" t="s">
+      <c r="M38" s="22">
+        <v>25.636283314956604</v>
+      </c>
+      <c r="N38" s="22">
+        <v>34.426477671635631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
+      <c r="A39" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="8">
         <v>54.817639711346494</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <v>101.42500911143922</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>105.91726548656615</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <v>189.22452577315829</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="8">
         <v>172.75946915708738</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="8">
         <v>252.20337692861443</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="8">
         <v>237.35720228810263</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="8">
         <v>224.58096470365689</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="18">
         <v>227.39870916535705</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="18">
         <v>191.87253135030616</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="18">
         <v>206.54622039502195</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
-      <c r="A40" s="15" t="s">
+      <c r="M39" s="22">
+        <v>280.60264339925197</v>
+      </c>
+      <c r="N39" s="22">
+        <v>327.40990763633141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
+      <c r="A40" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="8">
         <v>19.944497949247179</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <v>10.476640139335597</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>58.840241121005512</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <v>48.961663725697335</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="8">
         <v>11.778936299215674</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="8">
         <v>11.322645883770246</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="8">
         <v>34.704565434409105</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="8">
         <v>28.772594538749154</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="18">
         <v>48.765931721946245</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="18">
         <v>15.729759686681502</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="18">
         <v>52.783900162467454</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
-      <c r="A41" s="13" t="s">
+      <c r="M40" s="22">
+        <v>19.204141975995629</v>
+      </c>
+      <c r="N40" s="22">
+        <v>47.376422598211185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
+      <c r="A41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="7">
         <v>687.16496146242662</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="7">
         <v>756.49809199997435</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <v>931.15153619799707</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="7">
         <v>1019.8218690223219</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="7">
         <v>991.8225157744298</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="7">
         <v>1049.5617518517395</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="7">
         <v>1101.6821367732907</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <v>1137.7737981291493</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="7">
         <v>1248.3553381568479</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="7">
         <v>1013.0295644923107</v>
       </c>
-      <c r="L41" s="23">
+      <c r="L41" s="7">
         <v>1096.6337689184886</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
-      <c r="A42" s="14" t="s">
+      <c r="M41" s="21">
+        <v>1365.8612167597655</v>
+      </c>
+      <c r="N41" s="21">
+        <v>1641.15626209983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
+      <c r="A42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="9">
         <v>766.35458706066493</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="9">
         <v>816.79037141481626</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <v>988.90108636332548</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="9">
         <v>1086.2804065480716</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="9">
         <v>1061.2189804747247</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="9">
         <v>1112.730783154045</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="9">
         <v>1180.0600948140136</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="9">
         <v>1212.836536078765</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="9">
         <v>1310.2595272501108</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="9">
         <v>1083.1525690829042</v>
       </c>
-      <c r="L42" s="25">
+      <c r="L42" s="9">
         <v>1175.3746311158168</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="31" t="s">
+      <c r="M42" s="23">
+        <v>1436.3862247270797</v>
+      </c>
+      <c r="N42" s="23">
+        <v>1741.5996065422655</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7">
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5">
         <v>2011</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="5">
         <v>2012</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="5">
         <v>2013</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>2014</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="5">
         <v>2015</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="5">
         <v>2016</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="5">
         <v>2017</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="5">
         <v>2018</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="6">
         <v>2019</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="6">
         <v>2020</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
-      <c r="A47" s="12" t="s">
+      <c r="M46" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
+      <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="7">
         <v>152.87053985055755</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="7">
         <v>161.48755842224389</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="7">
         <v>198.66060656133806</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="7">
         <v>193.87586380288238</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="7">
         <v>200.73824835929886</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="7">
         <v>199.62441670519519</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="7">
         <v>210.01249565868159</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="7">
         <v>212.4719965502299</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="16">
         <v>228.2558943102072</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="16">
         <v>199.28593276197054</v>
       </c>
-      <c r="L47" s="26">
+      <c r="L47" s="16">
         <v>217.91169569194767</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
-      <c r="A48" s="12" t="s">
+      <c r="M47" s="20">
+        <v>282.06903177984378</v>
+      </c>
+      <c r="N47" s="20">
+        <v>342.06830250950338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
+      <c r="A48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="7">
         <v>134.96173334254826</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="7">
         <v>147.26143341621506</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="7">
         <v>184.13324880528265</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="7">
         <v>177.2253996114371</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="7">
         <v>183.90919210656082</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="7">
         <v>183.77968724446453</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="7">
         <v>190.88903666287987</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="7">
         <v>194.83593960087885</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="17">
         <v>213.88007916886326</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="17">
         <v>182.79550787427894</v>
       </c>
-      <c r="L48" s="27">
+      <c r="L48" s="17">
         <v>198.69870544618354</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
-      <c r="A49" s="15" t="s">
+      <c r="M48" s="21">
+        <v>263.89334308777507</v>
+      </c>
+      <c r="N48" s="21">
+        <v>315.88265136951128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
+      <c r="A49" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="8">
         <v>54.705829169789958</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <v>55.858414981339081</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="8">
         <v>62.617515096336305</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="8">
         <v>60.889877104632475</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="8">
         <v>61.185805224582786</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="8">
         <v>61.411286336367013</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="8">
         <v>65.679920629855118</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="8">
         <v>71.920186559168101</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="18">
         <v>77.254826301840552</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="18">
         <v>77.039770250640771</v>
       </c>
-      <c r="L49" s="28">
+      <c r="L49" s="18">
         <v>86.809996884444246</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
-      <c r="A50" s="15" t="s">
+      <c r="M49" s="22">
+        <v>103.95576460738233</v>
+      </c>
+      <c r="N49" s="22">
+        <v>110.80171125531825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
+      <c r="A50" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="8">
         <v>3.728943558242424</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <v>4.0017440105380757</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="8">
         <v>8.9619337123048872</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="8">
         <v>8.6498312872313097</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="8">
         <v>10.071678305629447</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="8">
         <v>8.6286747122386931</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="8">
         <v>10.968562341338187</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="8">
         <v>10.47346933235159</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="18">
         <v>9.5251273375398515</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="18">
         <v>6.2722402286091956</v>
       </c>
-      <c r="L50" s="28">
+      <c r="L50" s="18">
         <v>6.9257492825694742</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
-      <c r="A51" s="15" t="s">
+      <c r="M50" s="22">
+        <v>12.067513883426541</v>
+      </c>
+      <c r="N50" s="22">
+        <v>16.410038651718835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
+      <c r="A51" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="8">
         <v>3.6006093718704202</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <v>8.1341393156906836</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="8">
         <v>8.7911904330545259</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>9.5388863697603572</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="8">
         <v>7.8942745308143731</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="8">
         <v>8.4954112882298816</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="8">
         <v>6.8460593152747249</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="8">
         <v>6.6640991269786616</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="18">
         <v>6.1421712851403054</v>
       </c>
-      <c r="K51" s="20">
+      <c r="K51" s="18">
         <v>4.9041773826683883</v>
       </c>
-      <c r="L51" s="28">
+      <c r="L51" s="18">
         <v>5.3917032933400444</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
-      <c r="A52" s="15" t="s">
+      <c r="M51" s="22">
+        <v>9.4596012503735025</v>
+      </c>
+      <c r="N51" s="22">
+        <v>12.371801721091142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
+      <c r="A52" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="8">
         <v>22.631687571029097</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="8">
         <v>13.892938936254014</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="8">
         <v>20.618885537522438</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="8">
         <v>17.422497963453377</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="8">
         <v>19.119876742144235</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="8">
         <v>26.130032240793501</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="8">
         <v>23.474889838717438</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="8">
         <v>24.245764072282586</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="18">
         <v>25.838358854959765</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="18">
         <v>20.296955092763682</v>
       </c>
-      <c r="L52" s="28">
+      <c r="L52" s="18">
         <v>24.57612157018881</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1">
-      <c r="A53" s="16" t="s">
+      <c r="M52" s="22">
+        <v>30.678081416427244</v>
+      </c>
+      <c r="N52" s="22">
+        <v>44.55681170280431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="30" customHeight="1">
+      <c r="A53" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="8">
         <v>18.255967846482339</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="8">
         <v>21.058927172876636</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="8">
         <v>23.714591522048625</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="8">
         <v>22.595538010421667</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="8">
         <v>26.581400949121694</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="8">
         <v>31.033681738602034</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="8">
         <v>26.954408965467373</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="8">
         <v>27.021890575466095</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="18">
         <v>28.852443092573051</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="18">
         <v>25.215313015636141</v>
       </c>
-      <c r="L53" s="28">
+      <c r="L53" s="18">
         <v>25.246689302036657</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
-      <c r="A54" s="15" t="s">
+      <c r="M53" s="22">
+        <v>34.729145304060985</v>
+      </c>
+      <c r="N53" s="22">
+        <v>38.637533306170006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
+      <c r="A54" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="8">
         <v>10.223540998486676</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="8">
         <v>12.758469289315309</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="8">
         <v>22.040023048955582</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="8">
         <v>18.833322277313297</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="8">
         <v>20.375991542294067</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="8">
         <v>14.704724374447391</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="8">
         <v>19.470979373680695</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="8">
         <v>20.177457462888459</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="18">
         <v>29.2688316378728</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="18">
         <v>18.622689651236843</v>
       </c>
-      <c r="L54" s="28">
+      <c r="L54" s="18">
         <v>21.731303832198517</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
-      <c r="A55" s="15" t="s">
+      <c r="M54" s="22">
+        <v>27.437988158723464</v>
+      </c>
+      <c r="N54" s="22">
+        <v>37.692055581550392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="8">
         <v>5.889468187821377</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="8">
         <v>8.3131786774150473</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="8">
         <v>8.3691881232838945</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="8">
         <v>6.9845355559758735</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="8">
         <v>6.8669680269571174</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="8">
         <v>6.6356799558705015</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="8">
         <v>6.784055224254101</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="8">
         <v>8.3882470622460055</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="18">
         <v>8.2281240208896875</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="18">
         <v>4.7860664363426269</v>
       </c>
-      <c r="L55" s="28">
+      <c r="L55" s="18">
         <v>5.9268604354550227</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
-      <c r="A56" s="15" t="s">
+      <c r="M55" s="22">
+        <v>9.1224262356154959</v>
+      </c>
+      <c r="N55" s="22">
+        <v>13.476470033469077</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="8">
         <v>15.925686638825983</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="8">
         <v>23.243621032786205</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="8">
         <v>29.019921331776164</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="8">
         <v>32.310911042648662</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="8">
         <v>31.813196785017105</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="8">
         <v>26.740196597915563</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="8">
         <v>30.710160974292364</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="8">
         <v>25.94482540949738</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="18">
         <v>28.770196638047477</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="18">
         <v>25.658295816381319</v>
       </c>
-      <c r="L56" s="28">
+      <c r="L56" s="18">
         <v>22.090280845950804</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
-      <c r="A57" s="12" t="s">
+      <c r="M56" s="22">
+        <v>36.442822231765504</v>
+      </c>
+      <c r="N56" s="22">
+        <v>41.936229117389281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="7">
         <v>17.908806508009267</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="7">
         <v>14.226125006028798</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="7">
         <v>14.52735775605553</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="7">
         <v>16.650464191445138</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="7">
         <v>16.829056252738305</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="7">
         <v>15.844729460730418</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="7">
         <v>19.123458995801567</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="7">
         <v>17.636056949351072</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J57" s="17">
         <v>14.375815141343558</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K57" s="17">
         <v>16.490424887691603</v>
       </c>
-      <c r="L57" s="27">
+      <c r="L57" s="17">
         <v>19.2129902457641</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
-      <c r="A58" s="12" t="s">
+      <c r="M57" s="21">
+        <v>18.175688692068693</v>
+      </c>
+      <c r="N57" s="21">
+        <v>26.185651139992071</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
+      <c r="A58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="7">
         <v>20.441253361156434</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="7">
         <v>31.236319995388648</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="7">
         <v>50.10531154233113</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="7">
         <v>78.279884494911187</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="7">
         <v>56.613678659058593</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="7">
         <v>79.482573828296211</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="7">
         <v>77.910683253844525</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="7">
         <v>72.48502480031361</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J58" s="17">
         <v>76.021554871047954</v>
       </c>
-      <c r="K58" s="19">
+      <c r="K58" s="17">
         <v>55.432845856478444</v>
       </c>
-      <c r="L58" s="27">
+      <c r="L58" s="17">
         <v>68.88299632138245</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
-      <c r="A59" s="15" t="s">
+      <c r="M58" s="21">
+        <v>88.116092826095382</v>
+      </c>
+      <c r="N58" s="21">
+        <v>111.96795022199989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
+      <c r="A59" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="8">
         <v>1.5091010135237555</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="8">
         <v>1.4427320817971658</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="8">
         <v>1.8657686960113942</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="8">
         <v>1.9992700825538481</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="8">
         <v>2.1139871442918197</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="8">
         <v>2.4408546236366235</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="8">
         <v>2.9023523383520917</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="8">
         <v>2.8714804792999566</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="18">
         <v>2.7191992033934969</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="18">
         <v>2.6990324548793327</v>
       </c>
-      <c r="L59" s="28">
+      <c r="L59" s="18">
         <v>2.8357824444147095</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
-      <c r="A60" s="15" t="s">
+      <c r="M59" s="22">
+        <v>4.2429806635827498</v>
+      </c>
+      <c r="N59" s="22">
+        <v>5.2858809487207532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
+      <c r="A60" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="8">
         <v>2.0246263001989337</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="8">
         <v>3.3900937005257528</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="8">
         <v>6.7934842254017491</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="8">
         <v>16.605653650379828</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="8">
         <v>9.7480284491195537</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="8">
         <v>10.94131444553083</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="8">
         <v>8.627907268023181</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="8">
         <v>10.087900557272395</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J60" s="18">
         <v>9.169509666065526</v>
       </c>
-      <c r="K60" s="20">
+      <c r="K60" s="18">
         <v>3.9131730590234537</v>
       </c>
-      <c r="L60" s="28">
+      <c r="L60" s="18">
         <v>2.7699403284829374</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
-      <c r="A61" s="15" t="s">
+      <c r="M60" s="22">
+        <v>6.6069769885070748</v>
+      </c>
+      <c r="N60" s="22">
+        <v>8.9750071474851794</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
+      <c r="A61" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="8">
         <v>12.397059531471244</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="8">
         <v>23.931502878323123</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="8">
         <v>26.644328897132123</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="8">
         <v>47.408148115032802</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="8">
         <v>41.895200817418711</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="8">
         <v>63.260338082319713</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="8">
         <v>57.912847422694213</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="8">
         <v>52.765497122053667</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="18">
         <v>52.808087049106497</v>
       </c>
-      <c r="K61" s="20">
+      <c r="K61" s="18">
         <v>45.121562955217712</v>
       </c>
-      <c r="L61" s="28">
+      <c r="L61" s="18">
         <v>50.397854519348414</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
-      <c r="A62" s="15" t="s">
+      <c r="M61" s="22">
+        <v>72.316848159167435</v>
+      </c>
+      <c r="N61" s="22">
+        <v>85.355995150633888</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
+      <c r="A62" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="8">
         <v>4.5104665159624782</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="8">
         <v>2.4719913347425839</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="8">
         <v>14.801729723785902</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="8">
         <v>12.266812646944683</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="8">
         <v>2.8564622482285427</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="8">
         <v>2.8400666768091343</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="8">
         <v>8.4675762247749748</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="8">
         <v>6.7601466416875926</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="18">
         <v>11.32475895248241</v>
       </c>
-      <c r="K62" s="20">
+      <c r="K62" s="18">
         <v>3.6990773873579403</v>
       </c>
-      <c r="L62" s="28">
+      <c r="L62" s="18">
         <v>12.879419029136395</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
-      <c r="A63" s="12" t="s">
+      <c r="M62" s="22">
+        <v>4.9492870148381209</v>
+      </c>
+      <c r="N62" s="22">
+        <v>12.351066975160052</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
+      <c r="A63" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="7">
         <v>155.40298670370453</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="7">
         <v>178.49775341160367</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="7">
         <v>234.23856034761386</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="7">
         <v>255.50528410634823</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="7">
         <v>240.52287076561959</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="7">
         <v>263.26226107276079</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="7">
         <v>268.7997199167246</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="7">
         <v>267.32096440119244</v>
       </c>
-      <c r="J63" s="19">
+      <c r="J63" s="17">
         <v>289.90163403991147</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K63" s="17">
         <v>238.22835373075745</v>
       </c>
-      <c r="L63" s="27">
+      <c r="L63" s="17">
         <v>267.58170176756607</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
-      <c r="A64" s="17" t="s">
+      <c r="M63" s="21">
+        <v>352.0094359138705</v>
+      </c>
+      <c r="N63" s="21">
+        <v>427.85060159151118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
+      <c r="A64" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="9">
         <v>173.31179321171399</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="9">
         <v>192.72387841763256</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="9">
         <v>248.76591810366918</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="9">
         <v>272.15574829779365</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="9">
         <v>257.35192701835751</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="9">
         <v>279.10699053349106</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="9">
         <v>287.92317891252617</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="9">
         <v>284.95702135054358</v>
       </c>
-      <c r="J64" s="21">
+      <c r="J64" s="19">
         <v>304.27744918125524</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="19">
         <v>254.71877861844905</v>
       </c>
-      <c r="L64" s="29">
+      <c r="L64" s="19">
         <v>286.79469201333012</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="32" t="s">
+      <c r="M64" s="23">
+        <v>370.18512460593911</v>
+      </c>
+      <c r="N64" s="23">
+        <v>454.03625273150323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-    </row>
-    <row r="66" spans="1:12" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A66" s="33" t="s">
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+    </row>
+    <row r="66" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-    </row>
-    <row r="67" spans="1:12" ht="45" customHeight="1">
-      <c r="A67" s="30" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+    </row>
+    <row r="67" spans="1:14" ht="45" customHeight="1">
+      <c r="A67" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-    </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-    </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-    </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-    </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+    </row>
+    <row r="68" spans="1:14" ht="15" customHeight="1">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+    </row>
+    <row r="69" spans="1:14" ht="15" customHeight="1">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+    </row>
+    <row r="70" spans="1:14" ht="15" customHeight="1">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+    </row>
+    <row r="71" spans="1:14" ht="15" customHeight="1">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
     <mergeCell ref="A68:J68"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
